--- a/FLD_template.xlsx
+++ b/FLD_template.xlsx
@@ -494,6 +494,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,9 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -717,7 +717,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>template!$Q$8:$Q$9</c:f>
+              <c:f>template!$Q$7:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -732,14 +732,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>template!$P$5:$P$7</c:f>
+              <c:f>template!$P$5:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -765,14 +765,14 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>template!$Q$5:$Q$7</c:f>
+              <c:f>template!$Q$5:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -780,25 +780,25 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>template!$P$5:$P$7</c:f>
+              <c:f>template!$P$5:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="128227968"/>
-        <c:axId val="135636096"/>
+        <c:axId val="112530560"/>
+        <c:axId val="112532480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128227968"/>
+        <c:axId val="112530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,12 +823,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135636096"/>
+        <c:crossAx val="112532480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135636096"/>
+        <c:axId val="112532480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +854,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128227968"/>
+        <c:crossAx val="112530560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -867,7 +867,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1248,34 +1248,34 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="44"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37" t="s">
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="38.25">
       <c r="A4" s="23" t="s">
@@ -1351,8 +1351,13 @@
       </c>
       <c r="B6" s="17"/>
       <c r="L6" s="9"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <f>B13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="16" t="s">
@@ -1369,11 +1374,9 @@
       <c r="J7" s="8"/>
       <c r="K7" s="15"/>
       <c r="L7" s="9"/>
-      <c r="P7" s="27">
-        <v>0</v>
-      </c>
+      <c r="P7" s="27"/>
       <c r="Q7" s="27">
-        <f>B13</f>
+        <f>B14</f>
         <v>0</v>
       </c>
     </row>
@@ -1399,11 +1402,6 @@
         <v>100</v>
       </c>
       <c r="L9" s="9"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27">
-        <f>B14</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
@@ -1461,15 +1459,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
